--- a/exercisesLifeContingencies/exam1_2021_22/makeham.xlsx
+++ b/exercisesLifeContingencies/exam1_2021_22/makeham.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="makeham" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="makeham" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>lx</t>
+  </si>
+  <si>
+    <t>dx</t>
+  </si>
+  <si>
+    <t>qx</t>
+  </si>
+  <si>
+    <t>px</t>
+  </si>
+  <si>
+    <t>exo</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,2575 +388,2559 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>lx</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>dx</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>qx</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>px</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>exo</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>100000</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>40.11668954063686</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.0004011668954063685</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>0.9995988331045936</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>119.5473470463195</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:6">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>99959.88331045937</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>40.11056712238498</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>0.0004012666461185033</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>0.9995987333538815</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>118.5951240674997</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:6">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>99919.77274333697</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>40.10523652247462</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>0.0004013743768762623</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>0.9995986256231237</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>117.6425307245675</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:6">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>99879.6675068145</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>40.10076022811518</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0.0004014907260817546</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>0.9995985092739182</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>116.6895676142451</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:6">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>99839.56674658638</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>40.09720569785242</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>0.0004016163832083475</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>0.9995983836167917</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>115.7362353847868</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:6">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>99799.46954088853</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>40.09464575711512</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.0004017520928875085</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>0.9995982479071125</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>114.7825347394359</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:6">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>99759.37489513142</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>40.09315902497111</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>0.0004018986593201657</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>0.9995981013406798</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>113.8284664401048</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:6">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>99719.28173610645</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>40.0928303750507</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>0.0004020569510433392</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>0.9995979430489567</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>112.8740313112906</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:6">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>99679.1889057314</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>40.09375143291992</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>0.0004022279060761358</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>0.9995977720939239</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>111.9192302442412</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:6">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>99639.09515429847</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>40.09602111313862</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>0.0004024125374788579</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>0.9995975874625211</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>110.9640642013877</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:6">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>99598.99913318534</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>40.09974619887094</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.0004026119393554239</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>0.9995973880606446</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>110.0085342210566</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:6">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>99558.89938698646</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>40.10504196771073</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>0.0004028272933374044</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>0.9995971727066626</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>109.0526414224813</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:6">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>99518.79434501876</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>40.1120328671696</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.000403059875585976</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>0.999596940124414</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>108.0963870111272</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:6">
+      <c r="A15">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>99478.68231215159</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>40.12085324380151</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.0004033110643535398</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>0.9995966889356465</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>107.1397722843522</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:6">
+      <c r="A16">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>99438.56145890779</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>40.13164813039535</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>0.0004035823481515211</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>0.9995964176518485</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>106.1827986374189</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:6">
+      <c r="A17">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>99398.42981077739</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>40.14457409563573</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.000403875334570758</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>0.9995961246654292</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>105.2254675698801</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:6">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>99358.28523668175</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>40.1598001612196</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.0004041917598069933</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>0.999595808240193</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>104.2677806923595</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:6">
+      <c r="A19">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>99318.12543652054</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>40.17750879196632</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.0004045334989497551</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>0.9995954665010502</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>103.3097397337476</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:6">
+      <c r="A20">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>99277.94792772857</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>40.19789696441136</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.0004049025770926917</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>0.9995950974229073</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>102.3513465488387</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:6">
+      <c r="A21">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>99237.75003076416</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>40.22117732038316</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>0.0004053011813338614</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>0.9995946988186661</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>101.3926031264313</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:6">
+      <c r="A22">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>99197.52885344377</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>40.24757941217503</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>0.0004057316737359207</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>0.9995942683262641</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>100.4335115979181</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:6">
+      <c r="A23">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>99157.2812740316</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>40.27735104645231</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>0.000406196605321818</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>0.9995938033946782</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>99.47407424639229</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:6">
+      <c r="A24">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>99117.00392298515</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>40.31075973501196</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>0.0004066987311918124</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>0.9995933012688082</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>98.51429351629692</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:6">
+      <c r="A25">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>99076.69316325014</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>40.34809426050332</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>0.0004072410268479709</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>0.999592758973152</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>97.55417202364701</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:6">
+      <c r="A26">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>99036.34506898963</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>40.38966636655042</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>0.0004078267058261753</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>0.9995921732941738</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>96.59371256685323</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:6">
+      <c r="A27">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>98995.95540262308</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>40.43581258184162</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>0.0004084592387374464</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>0.9995915407612626</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>95.63291813817895</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:6">
+      <c r="A28">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>98955.51959004124</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>40.48689618883142</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>0.0004091423738318278</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>0.9995908576261682</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>94.67179193586236</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:6">
+      <c r="A29">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>98915.03269385241</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>40.54330934874795</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>0.000409880159209286</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>0.9995901198407907</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>93.71033737693624</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:6">
+      <c r="A30">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>98874.48938450366</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>40.60547539486189</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>0.0004106769668054122</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>0.9995893230331946</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>92.74855811078073</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:6">
+      <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>98833.8839091088</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>40.67385130749108</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>0.0004115375182958125</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>0.9995884624817042</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>91.78645803344308</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:6">
+      <c r="A32">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>98793.21005780131</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>40.74893038515278</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>0.0004124669130733949</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>0.9995875330869266</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>90.82404130276159</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:6">
+      <c r="A33">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>98752.46112741616</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>40.83124512714851</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>0.0004134706584625336</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>0.9995865293415375</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>89.86131235432961</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:6">
+      <c r="A34">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>98711.62988228901</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>40.92137034440918</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>0.0004145547023507445</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>0.9995854452976493</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>88.89827591833901</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:6">
+      <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>98670.7085119446</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>41.01992651637645</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>0.0004157254684292733</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>0.9995842745315707</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>87.93493703733995</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:6">
+      <c r="A36">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>98629.68858542822</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>41.12758341356288</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.000416989894254205</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>0.9995830101057458</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>86.97130108495762</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:6">
+      <c r="A37">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>98588.56100201466</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>41.24506400615429</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.000418355472348475</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>0.9995816445276515</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>86.00737378560468</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:6">
+      <c r="A38">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>98547.3159380085</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>41.37314868179217</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.0004198302945949139</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>0.9995801697054051</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>85.04316123522942</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:6">
+      <c r="A39">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>98505.94278932671</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>41.51267979614815</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.0004214231001771207</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>0.9995785768998229</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>84.0786699231397</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:6">
+      <c r="A40">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>98464.43010953057</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>41.66456658265427</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>0.0004231433273549356</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>0.9995768566726451</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>83.11390675494228</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:6">
+      <c r="A41">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>98422.76554294792</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>41.82979044954579</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.0004250011693818223</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>0.9995749988306182</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>82.14887907663692</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:6">
+      <c r="A42">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>98380.93575249838</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>42.00941069418052</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.0004270076348924512</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>0.9995729923651075</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>81.18359469990369</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:6">
+      <c r="A43">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>98338.9263418042</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>42.20457066739945</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.0004291746131201979</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>0.9995708253868798</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>80.21806192862091</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:6">
+      <c r="A44">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>98296.7217711368</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>42.41650442284147</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>0.0004315149443294697</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>0.9995684850556705</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>79.25228958664972</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:6">
+      <c r="A45">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>98254.30526671396</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>42.64654388902625</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>0.0004340424958810818</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>0.9995659575041189</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>78.2862870469187</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:6">
+      <c r="A46">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>98211.65872282493</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>42.89612660444273</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.000436772244377881</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>0.9995632277556221</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>77.32006426184054</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:6">
+      <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>98168.76259622048</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>43.16680405967486</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.0004397203643813352</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>0.9995602796356187</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>76.35363179508829</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:6">
+      <c r="A48">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>98125.59579216081</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>43.4602506928926</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.0004429043242187847</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>0.9995570956757812</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>75.38700085475594</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="49" spans="1:6">
+      <c r="A49">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>98082.13554146791</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>43.77827358935058</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>0.0004463429894513427</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>0.9995536570105487</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>74.42018332792314</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
+    <row r="50" spans="1:6">
+      <c r="A50">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>98038.35726787856</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>44.12282293907209</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>0.0004500567346157336</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>0.9995499432653843</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>73.45319181663805</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" spans="1:6">
+      <c r="A51">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>97994.23444493949</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>44.49600331017894</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>0.0004540675638950997</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>0.9995459324361049</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>72.48603967532688</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="52" spans="1:6">
+      <c r="A52">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>97949.73844162931</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>44.90008580090881</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>0.0004583992414401994</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>0.9995416007585598</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>71.51874104963008</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
+    <row r="53" spans="1:6">
+      <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>97904.8383558284</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>45.33752113637942</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>0.0004630774321040532</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>0.9995369225678959</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>70.55131091665761</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" spans="1:6">
+      <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>97859.50083469202</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>45.81095378229584</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>0.0004681298534281453</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>0.9995318701465719</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>69.58376512664464</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="55" spans="1:6">
+      <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>97813.68988090973</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>46.32323715176247</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>0.0004735864397730216</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>0.999526413560227</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>68.61612044597854</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" spans="1:6">
+      <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>97767.36664375797</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>46.87744998769662</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>0.0004794795195671719</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>0.9995205204804328</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>67.64839460155413</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="57" spans="1:6">
+      <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>97720.48919377026</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>47.476914008499</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>0.0004858440067195824</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>0.9995141559932804</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>66.68060632639974</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="58" spans="1:6">
+      <c r="A58">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>97673.01227976177</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>48.12521291072578</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>0.000492717607325166</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>0.9995072823926748</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>65.71277540649925</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" spans="1:6">
+      <c r="A59">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>97624.88706685104</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>48.82621282927362</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>0.0005001410428863151</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>0.9994998589571137</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>64.74492272871628</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="60" spans="1:6">
+      <c r="A60">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>97576.06085402177</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>49.58408436171472</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>0.0005081582913650795</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>0.9994918417086349</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>63.77707032970464</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="61" spans="1:6">
+      <c r="A61">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>97526.47676966005</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>50.40332627100511</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>0.0005168168474910528</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>0.9994831831525089</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>62.8092414456653</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" spans="1:6">
+      <c r="A62">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>97476.07344338905</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>51.2887909875661</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>0.0005261680038574079</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>0.9994738319961426</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>61.84146056278134</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="63" spans="1:6">
+      <c r="A63">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>97424.78465240147</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>52.24571203990636</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>0.0005362671544649755</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>0.999463732845535</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>60.87375346813291</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" spans="1:6">
+      <c r="A64">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>97372.53894036157</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>53.27973355054286</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>0.0005471741225026028</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>0.9994528258774974</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>59.90614730085813</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="65" spans="1:6">
+      <c r="A65">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>97319.25920681102</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>54.39694194207334</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>0.0005589535142933588</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>0.9994410464857066</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>58.93867060328822</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
+    <row r="66" spans="1:6">
+      <c r="A66">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>97264.86226486895</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>55.60390000702852</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>0.000571675101493585</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>0.9994283248985064</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>57.97135337174085</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="n">
+    <row r="67" spans="1:6">
+      <c r="A67">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>97209.25836486192</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>56.9076835030563</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>0.0005854142337909929</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>0.999414585766209</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>57.00422710660832</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="68" spans="1:6">
+      <c r="A68">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>97152.35068135886</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>58.31592044408349</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>0.0006002522845314218</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>0.9993997477154686</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>56.0373248613226</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="69" spans="1:6">
+      <c r="A69">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>97094.03476091477</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>59.83683326647771</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>0.0006162771318940496</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>0.999383722868106</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>55.07068128971974</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" spans="1:6">
+      <c r="A70">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>97034.19792764829</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>61.47928405742245</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>0.0006335836784394644</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>0.9993664163215605</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>54.1043326912597</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="71" spans="1:6">
+      <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>96972.71864359087</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>63.25282304147173</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>0.0006522744120843749</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>0.9993477255879156</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>53.13831705348375</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="72" spans="1:6">
+      <c r="A72">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>96909.46582054939</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>65.16774052820614</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>0.0006724600117895552</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>0.9993275399882104</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>52.17267409100937</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="73" spans="1:6">
+      <c r="A73">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>96844.29808002118</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>67.23512253179345</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>0.000694260001515401</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>0.9993057399984846</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>51.20744528027215</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="74" spans="1:6">
+      <c r="A74">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>96777.06295748938</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>69.46691027867794</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>0.0007178034562713709</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>0.9992821965437286</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>50.24267388912331</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="75" spans="1:6">
+      <c r="A75">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>96707.59604721071</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>71.87596382511792</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>0.0007432297643923391</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>0.9992567702356077</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>49.27840500028018</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="76" spans="1:6">
+      <c r="A76">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>96635.72008338559</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>74.47613000937851</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>0.000770689450496298</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>0.9992293105495037</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>48.31468552750368</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="77" spans="1:6">
+      <c r="A77">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>96561.24395337621</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>77.28231496481158</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>0.0008003450639277876</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>0.9991996549360722</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>47.35156422324028</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="78" spans="1:6">
+      <c r="A78">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>96483.96163841139</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>80.31056141899413</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>0.0008323721378685756</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>0.9991676278621314</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>46.38909167631548</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
+    <row r="79" spans="1:6">
+      <c r="A79">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>96403.65107699239</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>83.57813099949281</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>0.0008669602246987873</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>0.9991330397753012</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>45.42732029809859</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="80" spans="1:6">
+      <c r="A80">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>96320.0729459929</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>87.10359175921425</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>0.0009043140136330008</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>0.999095685986367</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>44.46630429537438</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" t="n">
+    <row r="81" spans="1:6">
+      <c r="A81">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>96232.96935423369</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>90.90691112067599</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>0.0009446545371165627</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>0.9990553454628834</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>43.50609962795325</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" t="n">
+    <row r="82" spans="1:6">
+      <c r="A82">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>96142.06244311301</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>95.00955442058972</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>0.0009882204729777522</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>0.9990117795270222</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>42.54676394882571</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" t="n">
+    <row r="83" spans="1:6">
+      <c r="A83">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>96047.05288869243</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>99.43458921056485</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>0.001035269549871543</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>0.9989647304501285</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>41.58835652441712</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" t="n">
+    <row r="84" spans="1:6">
+      <c r="A84">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>95947.61829948187</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>104.2067954355687</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>0.001086080064127359</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>0.9989139199358726</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>40.63093813222304</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="n">
+    <row r="85" spans="1:6">
+      <c r="A85">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>95843.41150404629</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>109.3527815692085</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>0.001140952516747507</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>0.9988590474832525</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>39.67457093279804</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" t="n">
+    <row r="86" spans="1:6">
+      <c r="A86">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>95734.05872247709</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>114.9011067290247</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>0.001200211379965732</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>0.9987997886200343</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>38.71931831273206</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" t="n">
+    <row r="87" spans="1:6">
+      <c r="A87">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>95619.15761574806</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>120.8824087264765</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>0.001264207003498719</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>0.9987357929965013</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>37.76524469487203</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" t="n">
+    <row r="88" spans="1:6">
+      <c r="A88">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>95498.27520702158</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>127.3295379214235</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>0.001333317671396661</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>0.9986666823286033</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>36.81241531162644</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" t="n">
+    <row r="89" spans="1:6">
+      <c r="A89">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>95370.94566910015</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>134.2776966465585</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>0.001407951821222886</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>0.9985920481787771</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>35.8608959367267</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" t="n">
+    <row r="90" spans="1:6">
+      <c r="A90">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>95236.66797245359</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>141.7645838414604</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>0.001488550438182745</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>0.9985114495618173</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>34.91075257029892</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" t="n">
+    <row r="91" spans="1:6">
+      <c r="A91">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>95094.90338861213</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>149.8305443835032</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>0.001575589637766495</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>0.9984244103622335</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>33.96205107152211</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" t="n">
+    <row r="92" spans="1:6">
+      <c r="A92">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>94945.07284422863</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>158.5187224210404</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>0.001669583451487933</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>0.9983304165485121</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>33.01485673250107</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" t="n">
+    <row r="93" spans="1:6">
+      <c r="A93">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>94786.5541218076</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>167.8752177973418</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>0.001771086831383384</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>0.9982289131686166</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>32.06923378625824</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="n">
+    <row r="94" spans="1:6">
+      <c r="A94">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>94618.67890401026</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>177.9492443966397</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>0.001880698890090904</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>0.9981193011099091</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>31.1252448409353</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" t="n">
+    <row r="95" spans="1:6">
+      <c r="A95">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>94440.72965961361</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>188.7932889406516</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>0.001999066394564153</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>0.9980009336054358</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>30.18295023138018</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" t="n">
+    <row r="96" spans="1:6">
+      <c r="A96">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>94251.93637067296</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>200.4632684079228</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>0.002126887532788113</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>0.9978731124672119</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>29.24240727826358</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" t="n">
+    <row r="97" spans="1:6">
+      <c r="A97">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>94051.47310226504</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>213.0186838319042</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>0.00226491597425893</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>0.9977350840257411</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>28.30366944370195</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" t="n">
+    <row r="98" spans="1:6">
+      <c r="A98">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>93838.45441843313</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>226.5227677492836</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>0.002413965246477745</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>0.9975860347535223</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>27.36678537104006</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" t="n">
+    <row r="99" spans="1:6">
+      <c r="A99">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>93611.93165068385</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>241.0426220068623</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>0.002574913451271588</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>0.9974250865487284</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>26.43179779494221</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" t="n">
+    <row r="100" spans="1:6">
+      <c r="A100">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>93370.88902867699</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>256.6493419868108</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>0.002748708346431039</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>0.997251291653569</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>25.49874230622265</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" t="n">
+    <row r="101" spans="1:6">
+      <c r="A101">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>93114.23968669018</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>273.4181225615787</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>0.002936372819899224</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>0.9970636271801008</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>24.56764595388147</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" t="n">
+    <row r="102" spans="1:6">
+      <c r="A102">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>92840.82156412861</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>291.4283402344527</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>0.00313901078560741</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>0.9968609892143926</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>23.63852566455531</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" t="n">
+    <row r="103" spans="1:6">
+      <c r="A103">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>92549.39322389415</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>310.7636049450608</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>0.00335781353199438</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>0.9966421864680056</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>22.71138645699272</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" t="n">
+    <row r="104" spans="1:6">
+      <c r="A104">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>92238.62961894908</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>331.5117739110467</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>0.003594066556285247</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>0.9964059334437148</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>21.78621942615887</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" t="n">
+    <row r="105" spans="1:6">
+      <c r="A105">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>91907.11784503804</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>353.7649186265851</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>0.003849156919739971</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>0.99615084308026</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>20.86299946808906</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" t="n">
+    <row r="106" spans="1:6">
+      <c r="A106">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>91553.35292641145</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>377.6192347331603</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>0.004124581161289442</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>0.9958754188387106</v>
       </c>
-      <c r="F106" t="n">
+      <c r="F106">
         <v>19.94168271255322</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" t="n">
+    <row r="107" spans="1:6">
+      <c r="A107">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>91175.73369167828</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>403.1748829118166</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>0.00442195380928001</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>0.99557804619072</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>19.02220362585528</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" t="n">
+    <row r="108" spans="1:6">
+      <c r="A108">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>90772.55880876647</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>430.5357472094195</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>0.004743016533404587</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>0.9952569834665954</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>18.10447174053799</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="n">
+    <row r="109" spans="1:6">
+      <c r="A109">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>90342.02306155705</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>459.8090953037742</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>0.005089647981321721</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>0.9949103520186783</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F109">
         <v>17.1883679622318</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" t="n">
+    <row r="110" spans="1:6">
+      <c r="A110">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>89882.21396625327</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>491.105123135202</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>0.005463874346926856</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>0.9945361256530731</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>16.27374039617843</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" t="n">
+    <row r="111" spans="1:6">
+      <c r="A111">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>89391.10884311807</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>524.5363640941899</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>0.005867880719711782</v>
       </c>
-      <c r="E111" t="n">
+      <c r="E111">
         <v>0.9941321192802882</v>
       </c>
-      <c r="F111" t="n">
+      <c r="F111">
         <v>15.36039962683148</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" t="n">
+    <row r="112" spans="1:6">
+      <c r="A112">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>88866.57247902387</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>560.2169405775531</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>0.006304023267126535</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>0.9936959767328735</v>
       </c>
-      <c r="F112" t="n">
+      <c r="F112">
         <v>14.4481133730895</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" t="n">
+    <row r="113" spans="1:6">
+      <c r="A113">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>88306.35553844633</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>598.2616332385727</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>0.00677484230427905</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>0.993225157695721</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>13.53660042878391</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" t="n">
+    <row r="114" spans="1:6">
+      <c r="A114">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>87708.09390520776</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>638.7847407105801</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>0.00728307630765479</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>0.9927169236923452</v>
       </c>
-      <c r="F114" t="n">
+      <c r="F114">
         <v>12.62552378257189</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" t="n">
+    <row r="115" spans="1:6">
+      <c r="A115">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>87069.30916449717</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>681.8987000467614</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>0.007831676931747245</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>0.9921683230682528</v>
       </c>
-      <c r="F115" t="n">
+      <c r="F115">
         <v>11.71448279281047</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" t="n">
+    <row r="116" spans="1:6">
+      <c r="A116">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>86387.41046445041</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>727.7124356874502</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>0.008423825089500903</v>
       </c>
-      <c r="E116" t="n">
+      <c r="E116">
         <v>0.9915761749104991</v>
       </c>
-      <c r="F116" t="n">
+      <c r="F116">
         <v>10.80300427061609</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" t="n">
+    <row r="117" spans="1:6">
+      <c r="A117">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>85659.69802876296</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>776.3294025685132</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>0.009062948159212936</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>0.9909370518407871</v>
       </c>
-      <c r="F117" t="n">
+      <c r="F117">
         <v>9.890532297275151</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" t="n">
+    <row r="118" spans="1:6">
+      <c r="A118">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>84883.36862619444</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>827.8452871875984</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>0.009752738381922921</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>0.9902472616180771</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>8.976416569378538</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" t="n">
+    <row r="119" spans="1:6">
+      <c r="A119">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>84055.52333900685</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>882.3453292641308</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>0.01049717251423821</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>0.9895028274857618</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>8.059899025146468</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" t="n">
+    <row r="120" spans="1:6">
+      <c r="A120">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>83173.17800974271</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>939.9012263346614</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>0.01130053280186749</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>0.9886994671981325</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>7.140098456671918</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" t="n">
+    <row r="121" spans="1:6">
+      <c r="A121">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>82233.27678340804</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>1000.567584554193</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>0.01216742933872816</v>
       </c>
-      <c r="E121" t="n">
+      <c r="E121">
         <v>0.9878325706612718</v>
       </c>
-      <c r="F121" t="n">
+      <c r="F121">
         <v>6.215992753075148</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" t="n">
+    <row r="122" spans="1:6">
+      <c r="A122">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>81232.70919885385</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>1064.377881534666</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>0.01310282387515993</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>0.9868971761248401</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>5.286398346076772</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" t="n">
+    <row r="123" spans="1:6">
+      <c r="A123">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>80168.33131731919</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>1131.339911737683</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>0.01411205513633129</v>
       </c>
-      <c r="E123" t="n">
+      <c r="E123">
         <v>0.9858879448636687</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>4.349946338757487</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" t="n">
+    <row r="124" spans="1:6">
+      <c r="A124">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>79036.9914055815</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>1201.430692329725</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>0.01520086570811552</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>0.9847991342918845</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>3.405054685793798</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" t="n">
+    <row r="125" spans="1:6">
+      <c r="A125">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>77835.56071325178</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>1274.590818177481</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>0.01637543054225699</v>
       </c>
-      <c r="E125" t="n">
+      <c r="E125">
         <v>0.983624569457743</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>2.449895653475229</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" t="n">
+    <row r="126" spans="1:6">
+      <c r="A126">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>76560.96989507429</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>1350.718269571651</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>0.0176423871252257</v>
       </c>
-      <c r="E126" t="n">
+      <c r="E126">
         <v>0.9823576128747743</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>1.482357612874774</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="n">
+    <row r="127" spans="1:6">
+      <c r="A127">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>75210.25162550264</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>75210.25162550264</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>1</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>0</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>